--- a/results/mp/deberta/corona/confidence/168/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -100,15 +100,15 @@
     <t>support</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -118,10 +118,10 @@
     <t>hope</t>
   </si>
   <si>
+    <t>share</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>share</t>
   </si>
   <si>
     <t>hand</t>
@@ -1203,25 +1203,25 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.6956521739130435</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="L17">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="M17">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="N17">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1229,25 +1229,25 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.6904761904761905</v>
+        <v>0.6777777777777778</v>
       </c>
       <c r="L18">
+        <v>61</v>
+      </c>
+      <c r="M18">
+        <v>65</v>
+      </c>
+      <c r="N18">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O18">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18">
         <v>29</v>
-      </c>
-      <c r="M18">
-        <v>30</v>
-      </c>
-      <c r="N18">
-        <v>0.97</v>
-      </c>
-      <c r="O18">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P18" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q18">
-        <v>13</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1255,25 +1255,25 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6777777777777778</v>
+        <v>0.6694560669456067</v>
       </c>
       <c r="L19">
-        <v>61</v>
+        <v>160</v>
       </c>
       <c r="M19">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="N19">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1359,25 +1359,25 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5975609756097561</v>
+        <v>0.582089552238806</v>
       </c>
       <c r="L23">
-        <v>196</v>
+        <v>39</v>
       </c>
       <c r="M23">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="N23">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O23">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P23" t="b">
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>132</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1385,25 +1385,25 @@
         <v>35</v>
       </c>
       <c r="K24">
-        <v>0.582089552238806</v>
+        <v>0.5764705882352941</v>
       </c>
       <c r="L24">
-        <v>39</v>
+        <v>196</v>
       </c>
       <c r="M24">
-        <v>42</v>
+        <v>196</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>28</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="10:17">
